--- a/src/test/resources/tdAddWordsWithReplacementsText.xlsx
+++ b/src/test/resources/tdAddWordsWithReplacementsText.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>Add piece of a word as bad word that contains special character</t>
+  </si>
+  <si>
+    <t>Use 20 characters replacement word</t>
+  </si>
+  <si>
+    <t>This word will be replaced.</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>20sletterreplacement</t>
+  </si>
+  <si>
+    <t>This 20sletterreplacement will be replaced.</t>
   </si>
 </sst>
 </file>
@@ -510,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,6 +630,23 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
